--- a/statistics/HistoricalDistanceData/historical_distance/Q60519437-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519437-en.xlsx
@@ -31,91 +31,121 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Federal judge dismisses Trump campaign lawsuit seeking to halt Georgia election certification</t>
+  </si>
+  <si>
+    <t>'Someone's Going To Get Killed': Election Official Blasts GOP Silence On Threats</t>
+  </si>
+  <si>
     <t>Georgia Hand Recount: Where Votes Differed by County</t>
   </si>
   <si>
-    <t>Federal judge dismisses Trump campaign lawsuit seeking to halt Georgia election certification</t>
-  </si>
-  <si>
     <t>Graham's one-man voting inquiry prompts confusion</t>
   </si>
   <si>
-    <t>'Someone's Going To Get Killed': Election Official Blasts GOP Silence On Threats</t>
+    <t>President Trump sees bump in Georgia following conventions, more undecided, Channel 2 poll finds</t>
+  </si>
+  <si>
+    <t>The Zogby Poll®: Trump's approval is decent in the "Peach State"; Bernie Sanders is beating Trump convincingly in Georgia; Trump is in close races with other Democratic rivals</t>
+  </si>
+  <si>
+    <t>Prediction 2020: Trump wins again</t>
+  </si>
+  <si>
+    <t>Presidential Contest Tightens as Campaigns Move Into Eight-Week Home Stretch</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Changing population turns Georgia into Trump-Biden battleground</t>
+  </si>
+  <si>
+    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
+  </si>
+  <si>
+    <t>Georgia presidential primaries postponed until May</t>
+  </si>
+  <si>
+    <t>Oann Gravis Georgia Poll</t>
+  </si>
+  <si>
+    <t>President Trump widens lead over Joe Biden in latest exclusive Channel 2 poll</t>
+  </si>
+  <si>
+    <t>Tight races in Georgia and North Carolina, while Supreme Court is another factor - Battleground Tracker</t>
+  </si>
+  <si>
+    <t>Polls 2020-11-02 (larger states)</t>
   </si>
   <si>
     <t>Extensive New Battleground Polling Shows Biden Gaining Ground</t>
   </si>
   <si>
+    <t>Georgia Voter Purge List 2020</t>
+  </si>
+  <si>
+    <t>2020 Electoral Interactive Map</t>
+  </si>
+  <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
     <t>Latest Georgia Voting Intention (23 - 26 September)</t>
   </si>
   <si>
-    <t>Presidential Contest Tightens as Campaigns Move Into Eight-Week Home Stretch</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
-    <t>Tight races in Georgia and North Carolina, while Supreme Court is another factor - Battleground Tracker</t>
-  </si>
-  <si>
-    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
-  </si>
-  <si>
-    <t>Georgia presidential primaries postponed until May</t>
-  </si>
-  <si>
-    <t>Changing population turns Georgia into Trump-Biden battleground</t>
-  </si>
-  <si>
     <t>Georgia: Policy Priorities and the Election</t>
   </si>
   <si>
-    <t>President Trump widens lead over Joe Biden in latest exclusive Channel 2 poll</t>
-  </si>
-  <si>
-    <t>Polls 2020-11-02 (larger states)</t>
-  </si>
-  <si>
-    <t>The Zogby Poll®: Trump's approval is decent in the "Peach State"; Bernie Sanders is beating Trump convincingly in Georgia; Trump is in close races with other Democratic rivals</t>
+    <t>Polls 2020-10-28</t>
+  </si>
+  <si>
+    <t>Voting &amp; Elections Toolkits</t>
   </si>
   <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Polls 2020-10-28</t>
-  </si>
-  <si>
-    <t>President Trump sees bump in Georgia following conventions, more undecided, Channel 2 poll finds</t>
-  </si>
-  <si>
-    <t>Prediction 2020: Trump wins again</t>
-  </si>
-  <si>
-    <t>Georgia Voter Purge List 2020</t>
-  </si>
-  <si>
-    <t>Oann Gravis Georgia Poll</t>
-  </si>
-  <si>
-    <t>Voting &amp; Elections Toolkits</t>
-  </si>
-  <si>
-    <t>2020 Electoral Interactive Map</t>
+    <t>2020-11-19T16:55:05UTC</t>
+  </si>
+  <si>
+    <t>2020-12-01T20:54:00UTC</t>
   </si>
   <si>
     <t>2020-11-20T03:31:42UTC</t>
   </si>
   <si>
-    <t>2020-11-19T16:55:05UTC</t>
-  </si>
-  <si>
     <t>2020-11-17T23:35:25UTC</t>
   </si>
   <si>
-    <t>2020-12-01T20:54:00UTC</t>
+    <t>2020-09-01T23:09:46UTC</t>
+  </si>
+  <si>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-11-02T18:39:05UTC</t>
+  </si>
+  <si>
+    <t>2020-09-09T10:00:38UTC</t>
+  </si>
+  <si>
+    <t>2020-10-12T15:55:56UTC</t>
+  </si>
+  <si>
+    <t>2020-08-06T13:13:00UTC</t>
+  </si>
+  <si>
+    <t>2020-03-10T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-07-12T17:10:31UTC</t>
+  </si>
+  <si>
+    <t>2020-10-24T03:34:09UTC</t>
+  </si>
+  <si>
+    <t>2020-09-27T14:30:00UTC</t>
   </si>
   <si>
     <t>2020-07-27T00:00:00UTC</t>
@@ -124,124 +154,94 @@
     <t>2020-10-02T19:00:07UTC</t>
   </si>
   <si>
-    <t>2020-09-09T10:00:38UTC</t>
-  </si>
-  <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-09-27T14:30:00UTC</t>
-  </si>
-  <si>
-    <t>2020-08-06T13:13:00UTC</t>
-  </si>
-  <si>
-    <t>2020-03-10T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-10-12T15:55:56UTC</t>
-  </si>
-  <si>
     <t>2020-10-22T00:00:00UTC</t>
   </si>
   <si>
-    <t>2020-10-24T03:34:09UTC</t>
+    <t>2020-10-28T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2020-10-28T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-09-01T23:09:46UTC</t>
-  </si>
-  <si>
-    <t>2020-11-02T18:39:05UTC</t>
-  </si>
-  <si>
-    <t>2020-07-12T17:10:31UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>https://www.fox5atlanta.com/news/judge-dismisses-trump-campaign-lawsuit-seeking-to-halt-georgia-election-certification</t>
+  </si>
+  <si>
+    <t>https://www.gpb.org/news/2020/12/01/someones-going-get-killed-election-official-blasts-gop-silence-on-threats</t>
+  </si>
+  <si>
     <t>https://www.nytimes.com/interactive/2020/11/19/us/elections/georgia-recount.html</t>
   </si>
   <si>
-    <t>https://www.fox5atlanta.com/news/judge-dismisses-trump-campaign-lawsuit-seeking-to-halt-georgia-election-certification</t>
-  </si>
-  <si>
     <t>https://www.washingtonpost.com/powerpost/lindsey-graham-voting-inquiry/2020/11/17/bb67c33c-2917-11eb-9b14-ad872157ebc9_story.html</t>
   </si>
   <si>
-    <t>https://www.gpb.org/news/2020/12/01/someones-going-get-killed-election-official-blasts-gop-silence-on-threats</t>
+    <t>https://www.wsbtv.com/news/politics/president-trump-sees-bump-georgia-following-conventions-more-undecided-channel-2-poll-finds/YPUWEFPKXBC2VFC6U54JMHSX7I/</t>
+  </si>
+  <si>
+    <t>https://zogbyanalytics.com/news/908-the-zogby-poll-trump-s-approval-is-decent-in-the-peach-state-bernie-sanders-is-beating-trump-convincingly-in-georgia-trump-is-in-close-races-with-other-democratic-rivals</t>
+  </si>
+  <si>
+    <t>https://medium.com/wick-research/predicting-2020-research-on-the-research-57ad9b7b3d5a</t>
+  </si>
+  <si>
+    <t>https://morningconsult.com/2020/09/09/trump-biden-race-tightens-2020-polling/</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.aljazeera.com/news/2020/10/12/changing-population-turns-georgia-into-trump-biden-battleground</t>
+  </si>
+  <si>
+    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/story/news/politics/elections/2020/03/14/coronavirus-georgia-presidential-primaries-postponed-until-may/5052124002/</t>
+  </si>
+  <si>
+    <t>https://www.gravismarketing.com/oann-gravis-georgia-poll/</t>
+  </si>
+  <si>
+    <t>https://www.wsbtv.com/news/local/atlanta/president-trump-widens-lead-over-joe-biden-latest-exclusive-channel-2-poll/7R643PFTRVDFHGNWHJFBVHKUCY/</t>
+  </si>
+  <si>
+    <t>https://www.cbsnews.com/news/trump-biden-opinion-poll-georgia-north-carolina-supreme-court-09-27-2020/</t>
+  </si>
+  <si>
+    <t>https://www.swayable.com/polls/2020-11-02-large.html</t>
   </si>
   <si>
     <t>https://morningconsult.com/form/july-presidential-battleground-state-polling/</t>
   </si>
   <si>
+    <t>https://www.savemyvote2020.org/georgia-voter-purge-list-2020/</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
+  </si>
+  <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
     <t>https://redfieldandwiltonstrategies.com/latest-georgia-voting-intention-23-26-september/</t>
   </si>
   <si>
-    <t>https://morningconsult.com/2020/09/09/trump-biden-race-tightens-2020-polling/</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
-    <t>https://www.cbsnews.com/news/trump-biden-opinion-poll-georgia-north-carolina-supreme-court-09-27-2020/</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
-  </si>
-  <si>
-    <t>https://www.usatoday.com/story/news/politics/elections/2020/03/14/coronavirus-georgia-presidential-primaries-postponed-until-may/5052124002/</t>
-  </si>
-  <si>
-    <t>https://www.aljazeera.com/news/2020/10/12/changing-population-turns-georgia-into-trump-biden-battleground</t>
-  </si>
-  <si>
     <t>https://www.americanactionforum.org/insight/georgia-policy-priorities-and-the-election-october-update/</t>
   </si>
   <si>
-    <t>https://www.wsbtv.com/news/local/atlanta/president-trump-widens-lead-over-joe-biden-latest-exclusive-channel-2-poll/7R643PFTRVDFHGNWHJFBVHKUCY/</t>
-  </si>
-  <si>
-    <t>https://www.swayable.com/polls/2020-11-02-large.html</t>
-  </si>
-  <si>
-    <t>https://zogbyanalytics.com/news/908-the-zogby-poll-trump-s-approval-is-decent-in-the-peach-state-bernie-sanders-is-beating-trump-convincingly-in-georgia-trump-is-in-close-races-with-other-democratic-rivals</t>
+    <t>https://www.swayable.com/polls/2020-10-28.html</t>
+  </si>
+  <si>
+    <t>https://godort.libguides.com/votingtoolkit/texas</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>https://www.swayable.com/polls/2020-10-28.html</t>
-  </si>
-  <si>
-    <t>https://www.wsbtv.com/news/politics/president-trump-sees-bump-georgia-following-conventions-more-undecided-channel-2-poll-finds/YPUWEFPKXBC2VFC6U54JMHSX7I/</t>
-  </si>
-  <si>
-    <t>https://medium.com/wick-research/predicting-2020-research-on-the-research-57ad9b7b3d5a</t>
-  </si>
-  <si>
-    <t>https://www.savemyvote2020.org/georgia-voter-purge-list-2020/</t>
-  </si>
-  <si>
-    <t>https://www.gravismarketing.com/oann-gravis-georgia-poll/</t>
-  </si>
-  <si>
-    <t>https://godort.libguides.com/votingtoolkit/texas</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -660,7 +660,7 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -677,7 +677,7 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -694,7 +694,7 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -776,7 +776,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -895,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
@@ -912,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -929,7 +929,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -946,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
@@ -963,7 +963,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -980,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -997,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
@@ -1014,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -1031,7 +1031,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
@@ -1048,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
